--- a/Selenium_Project/src/main/resources/TestData.xlsx
+++ b/Selenium_Project/src/main/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Home_Page" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Demo Web Shop</t>
   </si>
@@ -24,13 +24,19 @@
     <t>Good</t>
   </si>
   <si>
-    <t>Demo Web Shop. Login</t>
+    <t>Demo Web Shop. Register</t>
+  </si>
+  <si>
+    <t>Login was unsuccessful. Please correct the errors and try again.</t>
+  </si>
+  <si>
+    <t>Your registration completed</t>
+  </si>
+  <si>
+    <t>Demo Web Shop. Logi</t>
   </si>
   <si>
     <t>aiswaryapv25@gmail.com</t>
-  </si>
-  <si>
-    <t>Demo Web Shop. Register</t>
   </si>
 </sst>
 </file>
@@ -430,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,12 +449,14 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="4">
@@ -467,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,9 +488,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
